--- a/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
+++ b/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\04_Tag 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE916D67-E640-465F-8864-316D82F844D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26B6C-6162-478E-B7F2-95CB9CD4BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,9 @@
       <c r="C8" s="6">
         <v>0.3347222222222222</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>

--- a/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
+++ b/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\04_Tag 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26B6C-6162-478E-B7F2-95CB9CD4BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA08ED-AFD8-40C9-9D3F-BA284B87982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>0.3347222222222222</v>
       </c>
       <c r="D8" s="6">
-        <v>0.48749999999999999</v>
+        <v>0.49374999999999997</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>

--- a/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
+++ b/04_Tag 04/PA-Arbeitszeiten_0.4_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\04_Tag 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA08ED-AFD8-40C9-9D3F-BA284B87982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70602E-93DB-4307-B9FB-2224EA01BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,9 +568,15 @@
       <c r="D8" s="6">
         <v>0.49374999999999997</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="6">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.32777777777777778</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
